--- a/modules/tabs/docs/templates/Survey_Structure_Template.xlsx
+++ b/modules/tabs/docs/templates/Survey_Structure_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/modules/tabs/docs/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6890F9CD-D30B-9246-9A8F-C4034CB1C389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4258027-7BBA-724C-8EF9-D5F0AF257A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23380" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23380" windowHeight="24000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="181">
   <si>
     <t>Survey Structure Template - Instructions</t>
   </si>
@@ -1145,6 +1145,12 @@
   </si>
   <si>
     <t>Version 10.0 Last updated 4 December 2025</t>
+  </si>
+  <si>
+    <t>NB: for a ranking question the data has a quirk in the structure. The question in the survey structre must have NO underscore, despite spanning multiple columns.</t>
+  </si>
+  <si>
+    <t>However in the DATA file, the column headings must be &lt;Qno&gt;_&lt;OptionText&gt;</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
@@ -2071,10 +2077,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2483,6 +2489,16 @@
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
+    </row>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/modules/tabs/docs/templates/Survey_Structure_Template.xlsx
+++ b/modules/tabs/docs/templates/Survey_Structure_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/modules/tabs/docs/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4258027-7BBA-724C-8EF9-D5F0AF257A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9D18B4-F737-5443-86DB-9216D43C24A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23380" windowHeight="24000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1147,10 +1147,10 @@
     <t>Version 10.0 Last updated 4 December 2025</t>
   </si>
   <si>
-    <t>NB: for a ranking question the data has a quirk in the structure. The question in the survey structre must have NO underscore, despite spanning multiple columns.</t>
-  </si>
-  <si>
     <t>However in the DATA file, the column headings must be &lt;Qno&gt;_&lt;OptionText&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The ranking question follows a similar structure to the Multi_Mention. Q02 in Questions but Q02_1 in options. However the underscore can be the option rather than a number e.g. Q02_airtime instead of Q02_1</t>
   </si>
 </sst>
 </file>
@@ -2080,7 +2080,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2492,12 +2492,12 @@
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/modules/tabs/docs/templates/Survey_Structure_Template.xlsx
+++ b/modules/tabs/docs/templates/Survey_Structure_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/modules/tabs/docs/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4258027-7BBA-724C-8EF9-D5F0AF257A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30810B1-3B09-6B43-A384-F6B6357A58DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23380" windowHeight="24000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25100" windowHeight="25280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -372,9 +372,6 @@
     <t>List of valid question types below</t>
   </si>
   <si>
-    <t>Single_Mention</t>
-  </si>
-  <si>
     <t>Multi_Mention</t>
   </si>
   <si>
@@ -1147,10 +1144,13 @@
     <t>Version 10.0 Last updated 4 December 2025</t>
   </si>
   <si>
-    <t>NB: for a ranking question the data has a quirk in the structure. The question in the survey structre must have NO underscore, despite spanning multiple columns.</t>
-  </si>
-  <si>
     <t>However in the DATA file, the column headings must be &lt;Qno&gt;_&lt;OptionText&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The ranking question follows a similar structure to the Multi_Mention. Q02 in Questions but Q02_1 in options. However the underscore can be the option rather than a number e.g. Q02_airtime instead of Q02_1</t>
+  </si>
+  <si>
+    <t>Single_Response</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1860,7 +1860,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1874,7 +1874,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1915,7 +1915,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2079,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2100,7 +2100,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2197,13 +2197,13 @@
         <v>42</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>60</v>
@@ -2212,10 +2212,10 @@
         <v>60</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="187" x14ac:dyDescent="0.2">
@@ -2232,7 +2232,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>88</v>
@@ -2288,10 +2288,10 @@
         <v>38</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -2332,7 +2332,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2348,10 +2348,10 @@
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -2387,7 +2387,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -2405,7 +2405,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -2423,7 +2423,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -2438,10 +2438,10 @@
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -2456,10 +2456,10 @@
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -2477,7 +2477,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2523,7 +2523,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2547,7 +2547,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>73</v>
@@ -2559,16 +2559,16 @@
         <v>27</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2633,16 +2633,16 @@
         <v>60</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="323" x14ac:dyDescent="0.2">
@@ -2650,31 +2650,31 @@
         <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>138</v>
-      </c>
       <c r="I7" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K7" s="17"/>
     </row>
@@ -2686,7 +2686,7 @@
         <v>74</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>38</v>
@@ -2695,13 +2695,13 @@
         <v>75</v>
       </c>
       <c r="F8" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>129</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>38</v>
@@ -2714,13 +2714,13 @@
         <v>76</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
@@ -2732,7 +2732,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>29</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2783,18 +2783,18 @@
         <v>26</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" s="22">
         <v>18</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="22">
         <v>25</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="22">
         <v>35</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="22">
         <v>45</v>
@@ -2847,13 +2847,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="18"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="18"/>
     </row>
@@ -2866,7 +2866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2883,7 +2883,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2973,7 +2973,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>60</v>
@@ -2990,28 +2990,28 @@
         <v>19</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="G7" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="H7" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="I7" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="153" x14ac:dyDescent="0.2">
@@ -3019,22 +3019,22 @@
         <v>37</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>166</v>
-      </c>
       <c r="G8" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -3044,21 +3044,21 @@
         <v>76</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>168</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="17"/>
     </row>

--- a/modules/tabs/docs/templates/Survey_Structure_Template.xlsx
+++ b/modules/tabs/docs/templates/Survey_Structure_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/modules/tabs/docs/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9D18B4-F737-5443-86DB-9216D43C24A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A10841D-23E9-B142-A551-06F014645324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23380" windowHeight="24000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23380" windowHeight="24000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="182">
   <si>
     <t>Survey Structure Template - Instructions</t>
   </si>
@@ -372,9 +372,6 @@
     <t>List of valid question types below</t>
   </si>
   <si>
-    <t>Single_Mention</t>
-  </si>
-  <si>
     <t>Multi_Mention</t>
   </si>
   <si>
@@ -1151,6 +1148,12 @@
   </si>
   <si>
     <t xml:space="preserve"> The ranking question follows a similar structure to the Multi_Mention. Q02 in Questions but Q02_1 in options. However the underscore can be the option rather than a number e.g. Q02_airtime instead of Q02_1</t>
+  </si>
+  <si>
+    <t>Single_Response</t>
+  </si>
+  <si>
+    <t>This sheet should on be included if it is used. Do not use this sheet if there are no metrics</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1689,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1874,7 +1877,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1915,7 +1918,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2079,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2100,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2197,13 +2200,13 @@
         <v>42</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>60</v>
@@ -2212,10 +2215,10 @@
         <v>60</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="187" x14ac:dyDescent="0.2">
@@ -2232,7 +2235,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>88</v>
@@ -2288,10 +2291,10 @@
         <v>38</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -2332,7 +2335,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2348,10 +2351,10 @@
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -2366,10 +2369,10 @@
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -2387,7 +2390,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -2405,7 +2408,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -2423,7 +2426,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -2438,10 +2441,10 @@
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -2456,10 +2459,10 @@
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -2477,7 +2480,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -2492,12 +2495,12 @@
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2523,7 +2526,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2547,7 +2550,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>73</v>
@@ -2559,16 +2562,16 @@
         <v>27</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2633,16 +2636,16 @@
         <v>60</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="323" x14ac:dyDescent="0.2">
@@ -2650,31 +2653,31 @@
         <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>138</v>
-      </c>
       <c r="I7" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K7" s="17"/>
     </row>
@@ -2686,7 +2689,7 @@
         <v>74</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>38</v>
@@ -2695,13 +2698,13 @@
         <v>75</v>
       </c>
       <c r="F8" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>129</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>38</v>
@@ -2714,13 +2717,13 @@
         <v>76</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
@@ -2732,7 +2735,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>29</v>
@@ -2755,7 +2758,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -2763,7 +2766,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2783,18 +2786,18 @@
         <v>26</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" s="22">
         <v>18</v>
@@ -2805,10 +2808,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="22">
         <v>25</v>
@@ -2819,10 +2822,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="22">
         <v>35</v>
@@ -2833,10 +2836,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="22">
         <v>45</v>
@@ -2847,13 +2850,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="18"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="18"/>
     </row>
@@ -2864,10 +2867,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2883,7 +2886,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2973,7 +2976,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>60</v>
@@ -2990,28 +2993,28 @@
         <v>19</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="G7" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="H7" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="I7" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="153" x14ac:dyDescent="0.2">
@@ -3019,22 +3022,22 @@
         <v>37</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>166</v>
-      </c>
       <c r="G8" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -3044,21 +3047,21 @@
         <v>76</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>168</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="17"/>
     </row>
@@ -3073,6 +3076,11 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
+    <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="B13" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
